--- a/Excel/Miller_45nm.xlsx
+++ b/Excel/Miller_45nm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIITB\MTech_1st_Sem\ACMOS\Final_Project\Repo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B9211-D3C5-4873-9B47-E684593BB8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9429E-9E9D-432B-B339-2FB721F76172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1542,7 +1542,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
